--- a/工具帮助文档.xlsx
+++ b/工具帮助文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="8310"/>
+    <workbookView windowWidth="21060" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="配置导出工具帮助文档" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>表格及导表工具优化需求</t>
   </si>
@@ -42,19 +42,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>2024.05.24</t>
+    <t>2024.07.02</t>
   </si>
   <si>
     <t>算力不足</t>
   </si>
   <si>
-    <t>创建配置导出工具</t>
+    <t>创建配置导出工具2.0版</t>
   </si>
   <si>
     <t>需求目的</t>
   </si>
   <si>
-    <t>优化表格和导表工具，便于查找配置、修改配置 和 拓展游戏，以此提高策划对表格的管理效率</t>
+    <t>优化表格和导表工具，便于查找配置、修改配置 和 拓展游戏，以此提高策划对游戏配置表格的管理效率</t>
   </si>
   <si>
     <t>错误对照表</t>
@@ -390,6 +390,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">具体可以看测试配置的表2 和 表3 
 基础数据类型：
 BOOL   true 或者 false    值只有两个选项时推荐使用  true 
@@ -435,6 +442,9 @@
 &lt;(STR)&gt; 输入类似  (卡卡十大|卡卡十大)|(卡卡十大|发生发)
 </t>
     </r>
+  </si>
+  <si>
+    <t>2024.05.24</t>
   </si>
   <si>
     <t>创建语言导出工具</t>
@@ -1859,8 +1869,8 @@
   <sheetPr/>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2290,14 +2300,14 @@
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2343,7 +2353,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
